--- a/表.xlsx
+++ b/表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>uId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,22 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户表TbUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别表TbCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单表TbOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单明细表TbOrderDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销量表TbSale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收货地址表TbAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商家表TbMerchant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mcId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜单汇总表TbMenuSummary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认收货地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,6 +287,54 @@
   </si>
   <si>
     <t>iRoleLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单汇总表TbMenuSummary***1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别表TbCategory***1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销量表TbSale***0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单表TbOrder***2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单明细表TbOrderDetail***0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sMerchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sOrderAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表TbUser***2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址表TbAddress***0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家表TbMerchant***1+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +382,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -397,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -454,13 +474,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,33 +518,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,7 +861,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -828,25 +877,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -854,7 +903,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="8"/>
@@ -864,18 +913,14 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="5"/>
       <c r="D3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="8" t="s">
@@ -888,14 +933,14 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
@@ -911,7 +956,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -952,7 +997,7 @@
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="3"/>
@@ -966,10 +1011,10 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -982,51 +1027,52 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="8"/>
@@ -1042,70 +1088,70 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>0</v>
+      <c r="E14" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>67</v>
+      <c r="H14" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3"/>
-      <c r="B15" s="16" t="s">
-        <v>55</v>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>55</v>
+      <c r="E15" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>50</v>
+      <c r="E16" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="3" t="s">
@@ -1118,33 +1164,33 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
       <c r="D19" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="1"/>
@@ -1153,46 +1199,46 @@
     </row>
     <row r="20" spans="1:9">
       <c r="D20" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:9">
       <c r="D21" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="A23" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="15"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="9"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
@@ -1200,16 +1246,16 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
@@ -1218,17 +1264,17 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
@@ -1236,17 +1282,24 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
+      <c r="A27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="39" spans="10:10">
       <c r="J39" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
